--- a/excel-templates/chapter04.xlsx
+++ b/excel-templates/chapter04.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="7272" windowHeight="4788"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="7272" windowHeight="4788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weibull" sheetId="4" r:id="rId1"/>
@@ -109,10 +109,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -366,17 +366,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -704,154 +704,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>1.3975424859373686E-3</c:v>
+                  <c:v>2.0399535114269728E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9528470752104748E-3</c:v>
+                  <c:v>2.6917347959368328E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.2618437741389071E-3</c:v>
+                  <c:v>3.1656928277010431E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1180339887498952E-2</c:v>
+                  <c:v>3.5517653569413132E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5625000000000003E-2</c:v>
+                  <c:v>3.8833655368252418E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0539595906443723E-2</c:v>
+                  <c:v>4.1771567292285381E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5882849051060818E-2</c:v>
+                  <c:v>4.4428278581830084E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1622776601683798E-2</c:v>
+                  <c:v>4.6865824856931758E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7733647120308952E-2</c:v>
+                  <c:v>4.912666403043463E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4194173824159216E-2</c:v>
+                  <c:v>5.1241315462637342E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0986364598782696E-2</c:v>
+                  <c:v>5.3232559041010291E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.809475019311125E-2</c:v>
+                  <c:v>5.5117913487552855E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.5505844204925709E-2</c:v>
+                  <c:v>5.6911182741172471E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.3207752321731601E-2</c:v>
+                  <c:v>5.8623465050746738E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.1189881604791125E-2</c:v>
+                  <c:v>6.0263836202176973E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.9442719099991588E-2</c:v>
+                  <c:v>6.1839826643618403E-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.7957659858736917E-2</c:v>
+                  <c:v>6.3357763570269358E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1067268710306828</c:v>
+                  <c:v>6.4823021818040687E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.11574318284460644</c:v>
+                  <c:v>6.6240211548633911E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.125</c:v>
+                  <c:v>6.7613321111359393E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.13449122880321973</c:v>
+                  <c:v>6.8945827473891586E-4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.14421121662339587</c:v>
+                  <c:v>7.0240782765298234E-4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.15415470111222684</c:v>
+                  <c:v>7.150088294079174E-4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.16431676725154984</c:v>
+                  <c:v>7.2728522872121996E-4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.17469281074217108</c:v>
+                  <c:v>7.392584099650875E-4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.18527850657860992</c:v>
+                  <c:v>7.5094755838418857E-4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.19606978190175051</c:v>
+                  <c:v>7.6236996136856867E-4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.20706279240848655</c:v>
+                  <c:v>7.7354125891378601E-4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.21825390174061038</c:v>
+                  <c:v>7.8447565333390268E-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.22963966338592295</c:v>
+                  <c:v>7.9518608602294433E-4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.24121680471103168</c:v>
+                  <c:v>8.0568438736054043E-4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.25298221281347039</c:v>
+                  <c:v>8.1598140457078878E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.26493292193496826</c:v>
+                  <c:v>8.2608711135979853E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.27706610222111255</c:v>
+                  <c:v>8.3601070239849114E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.28937904964768957</c:v>
+                  <c:v>8.4576067512667145E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.30186917696247162</c:v>
+                  <c:v>8.5534490089108587E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.31453400551450716</c:v>
+                  <c:v>8.6477068706395375E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.32737115786214271</c:v>
+                  <c:v>8.7404483149692441E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.34037835106686792</c:v>
+                  <c:v>8.8317367043176675E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.35355339059327379</c:v>
+                  <c:v>8.9216312080066663E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.36689416474645653</c:v>
+                  <c:v>9.010187176961374E-4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.38039863958747272</c:v>
+                  <c:v>9.0974564766583101E-4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.39406485427528293</c:v>
+                  <c:v>9.1834877838523532E-4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.40789091679026152</c:v>
+                  <c:v>9.2683268517691373E-4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.421875</c:v>
+                  <c:v>9.3520167477508529E-4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.43601533803296411</c:v>
+                  <c:v>9.4345980667621401E-4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.4503102229297043</c:v>
+                  <c:v>9.5161091236769103E-4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.46475800154488994</c:v>
+                  <c:v>9.5965861268592354E-4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.47935707267651745</c:v>
+                  <c:v>9.6760633352078432E-4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.49410588440130937</c:v>
+                  <c:v>9.7545732005432408E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4928,154 +4928,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>1.3967614542626976E-3</c:v>
+                  <c:v>2.0396562894868333E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9403668186289769E-3</c:v>
+                  <c:v>2.6906999326034651E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1988374481081596E-3</c:v>
+                  <c:v>3.1635460678358949E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0982118122746911E-2</c:v>
+                  <c:v>3.5481628887961818E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.514426928869288E-2</c:v>
+                  <c:v>3.8779833671784958E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9551646457064756E-2</c:v>
+                  <c:v>4.1696854309602105E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4073425920276281E-2</c:v>
+                  <c:v>4.4329694523483109E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8579359296853665E-2</c:v>
+                  <c:v>4.6740483878394821E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2940768782225759E-2</c:v>
+                  <c:v>4.897175974931811E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.7033254200156872E-2</c:v>
+                  <c:v>5.1054110236673682E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.074031863430904E-2</c:v>
+                  <c:v>5.3010375735341542E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.3957378795705035E-2</c:v>
+                  <c:v>5.4858128971009351E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.6595733134311312E-2</c:v>
+                  <c:v>5.6611222629811438E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.8586120728033019E-2</c:v>
+                  <c:v>5.8280799379110796E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.9881557187326432E-2</c:v>
+                  <c:v>5.9875975802264479E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0459195920156935E-2</c:v>
+                  <c:v>6.1404320075324919E-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.0321038797884063E-2</c:v>
+                  <c:v>6.2872194489405953E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9493408168540545E-2</c:v>
+                  <c:v>6.4285006697025848E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.8025187175273543E-2</c:v>
+                  <c:v>6.5647397685328986E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.5984930146430292E-2</c:v>
+                  <c:v>6.6963384876163518E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.3457031208912457E-2</c:v>
+                  <c:v>6.8236472755953104E-4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.0537209310256596E-2</c:v>
+                  <c:v>6.9469739586716455E-4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.7327614976860317E-2</c:v>
+                  <c:v>7.0665906213761916E-4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.3931884120139894E-2</c:v>
+                  <c:v>7.1827391278650617E-4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.0450455617501794E-2</c:v>
+                  <c:v>7.2956355973967163E-4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.697643387917564E-2</c:v>
+                  <c:v>7.4054740657071084E-4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.3592219640794897E-2</c:v>
+                  <c:v>7.5124295057781649E-4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.0367058520003718E-2</c:v>
+                  <c:v>7.6166603395041001E-4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.7355575543796898E-2</c:v>
+                  <c:v>7.7183105410607092E-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.4597283340519306E-2</c:v>
+                  <c:v>7.8175114100555133E-4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.2116979765025002E-2</c:v>
+                  <c:v>7.9143830755161167E-4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.9258935937831857E-3</c:v>
+                  <c:v>8.009035778890419E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.0233986154713086E-3</c:v>
+                  <c:v>8.1015709743826833E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.3990985167618839E-3</c:v>
+                  <c:v>8.1920822773495642E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.0350865925097342E-3</c:v>
+                  <c:v>8.2806562855655501E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.9082026437113121E-3</c:v>
+                  <c:v>8.3673732935268059E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.9921401910827029E-3</c:v>
+                  <c:v>8.4523079162940285E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.2592953374039096E-3</c:v>
+                  <c:v>8.5355296364544734E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.6822892581781282E-3</c:v>
+                  <c:v>8.6171032854425811E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.2351349787595074E-3</c:v>
+                  <c:v>8.6970894685708163E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.9405241585762416E-4</c:v>
+                  <c:v>8.775544941590557E-4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.3796146913068931E-4</c:v>
+                  <c:v>8.8525229453531866E-4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.4870034683490954E-4</c:v>
+                  <c:v>8.9280735041163636E-4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.1102550588931881E-4</c:v>
+                  <c:v>9.0022436921952489E-4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.1245163035777645E-4</c:v>
+                  <c:v>9.0750778729583865E-4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.4298653727251633E-4</c:v>
+                  <c:v>9.1466179135851907E-4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9.4808571082823139E-5</c:v>
+                  <c:v>9.2169033785150195E-4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.1924660483369357E-5</c:v>
+                  <c:v>9.2859717041090791E-4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.9837250973227157E-5</c:v>
+                  <c:v>9.3538583567018936E-4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.5238924506041381E-5</c:v>
+                  <c:v>9.4205969759278343E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5497,154 +5497,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.99944113922651368</c:v>
+                  <c:v>0.9998542996502251</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99684271707353289</c:v>
+                  <c:v>0.99961554038127021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99132364617163382</c:v>
+                  <c:v>0.99932186728719752</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98227050637577851</c:v>
+                  <c:v>0.99898572462336488</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96923323447634413</c:v>
+                  <c:v>0.99861404506073204</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95190024896891834</c:v>
+                  <c:v>0.99821139144335924</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93009180993889173</c:v>
+                  <c:v>0.99778105158485042</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.90375869446365809</c:v>
+                  <c:v>0.99732553563455739</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.87298131233374532</c:v>
+                  <c:v>0.9968468389992744</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.83796688557875576</c:v>
+                  <c:v>0.99634659601781372</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.79904341003519441</c:v>
+                  <c:v>0.99582617650416583</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.75664976008309626</c:v>
+                  <c:v>0.99528674980408727</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.71132177136047881</c:v>
+                  <c:v>0.99472932915969736</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.66367453155108425</c:v>
+                  <c:v>0.99415480351870511</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.61438145002028</c:v>
+                  <c:v>0.99356396100289279</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5641509608372548</c:v>
+                  <c:v>0.99295750664368299</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.51370192867460474</c:v>
+                  <c:v>0.99233607606233032</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.46373895993176578</c:v>
+                  <c:v>0.99170024620997987</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.41492886228773246</c:v>
+                  <c:v>0.99105054393025782</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.36787944117144233</c:v>
+                  <c:v>0.99038745287891683</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.32312167563355693</c:v>
+                  <c:v>0.98971141918331318</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.28109609127089291</c:v>
+                  <c:v>0.98902285612109231</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.24214386397262885</c:v>
+                  <c:v>0.98832214802548313</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.20650287056946617</c:v>
+                  <c:v>0.98760965357352537</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.17430857908883032</c:v>
+                  <c:v>0.98688570857668867</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.1455993702525343</c:v>
+                  <c:v>0.98615062836630596</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.12032562800838341</c:v>
+                  <c:v>0.98540470984615203</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.8361749511347588E-2</c:v>
+                  <c:v>0.98464823326935225</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.9520115816410886E-2</c:v>
+                  <c:v>0.98388146378527597</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.3566037004625431E-2</c:v>
+                  <c:v>0.98310465279317605</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.023273473645698E-2</c:v>
+                  <c:v>0.98231803913242055</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.9235539461036244E-2</c:v>
+                  <c:v>0.98152185013373205</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.0284641700516073E-2</c:v>
+                  <c:v>0.9807163025515454</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.3095927164901192E-2</c:v>
+                  <c:v>0.97990160339415644</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.7399623775943018E-2</c:v>
+                  <c:v>0.97907795066557546</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.2946676712863533E-2</c:v>
+                  <c:v>0.97824553403075154</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.512930680382975E-3</c:v>
+                  <c:v>0.97740453541401573</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.9013267758771465E-3</c:v>
+                  <c:v>0.97655512953908574</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.9424096829461389E-3</c:v>
+                  <c:v>0.97569748441774129</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.4934892766462001E-3</c:v>
+                  <c:v>0.97483176179325415</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.436812851671986E-3</c:v>
+                  <c:v>0.9739581175437968</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.6770866210839589E-3</c:v>
+                  <c:v>0.97307670205034136</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.1386459410598941E-3</c:v>
+                  <c:v>0.97218766053295202</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.6252128470232362E-4</c:v>
+                  <c:v>0.9712911333588653</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.0358904973695157E-4</c:v>
+                  <c:v>0.97038725632531941</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.2793923699469971E-4</c:v>
+                  <c:v>0.969476160919722</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.1054057015628365E-4</c:v>
+                  <c:v>0.96855797455942994</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.3324065487313228E-4</c:v>
+                  <c:v>0.96763282081314328</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8.3105587137357963E-5</c:v>
+                  <c:v>0.96670081960568022</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.1079991764563774E-5</c:v>
+                  <c:v>0.96576208740769842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9498,7 +9498,7 @@
         <xdr:cNvPr id="3180" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE2324A-12E3-47C0-8256-6E0922677932}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C0C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9536,7 +9536,7 @@
         <xdr:cNvPr id="3181" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F74AF7FC-B0ED-45FD-A70D-F858CD63B3EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D0C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9574,7 +9574,7 @@
         <xdr:cNvPr id="3182" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E3812AB-7517-42AB-99E4-3C7D2B6A855C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E0C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9617,7 +9617,7 @@
                   <a14:compatExt spid="_x0000_s3148"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8B3E550-24E0-4CC4-B6B8-9F3E080959FF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9635,7 +9635,6 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -9653,15 +9652,6 @@
                   <a:headEnd/>
                   <a:tailEnd/>
                 </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -9694,7 +9684,7 @@
                   <a14:compatExt spid="_x0000_s3149"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214EB486-04EB-46E6-AE2C-DB1485C4DED9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9712,7 +9702,6 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -9730,15 +9719,6 @@
                   <a:headEnd/>
                   <a:tailEnd/>
                 </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -9815,7 +9795,7 @@
         <xdr:cNvPr id="30827" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70C94EC7-BEBE-4DD8-ACD1-310BD4E2153E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006B780000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9853,7 +9833,7 @@
         <xdr:cNvPr id="30828" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5D3D32-BD08-46F8-95B5-CA2F51178AD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006C780000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9891,7 +9871,7 @@
         <xdr:cNvPr id="30829" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A91380A-88EF-4974-8BB5-EC45A626C30C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006D780000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9934,7 +9914,7 @@
                   <a14:compatExt spid="_x0000_s30745"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B58C9EA-6F4F-496C-A933-50D28D3140D9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019780000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9988,7 +9968,7 @@
                   <a14:compatExt spid="_x0000_s30746"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F274F85-5992-4991-BD79-B8DAB6E7920D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A780000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10042,7 +10022,7 @@
                   <a14:compatExt spid="_x0000_s30747"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9869FE5-3698-4A0A-B693-5A80BFA26D37}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B780000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10096,7 +10076,7 @@
                   <a14:compatExt spid="_x0000_s30748"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{155DF8AA-7F94-49D3-B391-9DF68F5DA09D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C780000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10150,7 +10130,7 @@
         <xdr:cNvPr id="2130" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FF13C3A-2D76-4372-9606-C1ECCA0943A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000052080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10188,7 +10168,7 @@
         <xdr:cNvPr id="2131" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0AEC5F0-5865-4E7A-90B0-C803740751B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000053080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10226,7 +10206,7 @@
         <xdr:cNvPr id="2132" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6061F856-F9F0-4D79-ACE6-ABC3A1592FCD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000054080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10269,7 +10249,7 @@
                   <a14:compatExt spid="_x0000_s2101"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C936FC-0879-4342-9A55-42EB595BA459}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10284,9 +10264,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:effectLst/>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
@@ -10295,16 +10272,6 @@
                     <a:srgbClr val="00CC99"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
               <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
                 <a14:hiddenEffects>
@@ -10346,7 +10313,7 @@
                   <a14:compatExt spid="_x0000_s2102"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E88087FD-E9F5-4888-8D98-1AC4CC5B9778}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10361,9 +10328,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:effectLst/>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
@@ -10372,16 +10336,6 @@
                     <a:srgbClr val="00CC99"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
               <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
                 <a14:hiddenEffects>
@@ -10423,7 +10377,7 @@
         <xdr:cNvPr id="1106" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{452845CC-E2D5-4D37-B9CF-3FECD2B73BBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000052040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10461,7 +10415,7 @@
         <xdr:cNvPr id="1107" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24683D8D-AECE-462F-BBC0-5D588C135A32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000053040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10499,7 +10453,7 @@
         <xdr:cNvPr id="1108" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{534E22CE-B805-470F-B381-0E9A78A0BA41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000054040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10542,7 +10496,7 @@
                   <a14:compatExt spid="_x0000_s1077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{543B07C7-F710-4715-AE36-F61C0DB07E69}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000035040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10557,9 +10511,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:effectLst/>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
@@ -10568,16 +10519,6 @@
                     <a:srgbClr val="00CC99"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
               <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
                 <a14:hiddenEffects>
@@ -10619,7 +10560,7 @@
                   <a14:compatExt spid="_x0000_s1078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1DB1F7-ED3C-45D9-86D6-C6697DECE1D3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000036040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10634,9 +10575,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:effectLst/>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
@@ -10645,16 +10583,6 @@
                     <a:srgbClr val="00CC99"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
               <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
                 <a14:hiddenEffects>
@@ -10696,7 +10624,7 @@
         <xdr:cNvPr id="11367" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1062CCD1-3E7C-43B5-928D-5B09C19B99C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000672C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10734,7 +10662,7 @@
         <xdr:cNvPr id="11368" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD42838E-A762-4892-95C2-7B7DE676B031}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000682C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10772,7 +10700,7 @@
         <xdr:cNvPr id="11369" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEB595D0-6F2D-4740-BD7C-4918552AC0FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000692C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10815,7 +10743,7 @@
                   <a14:compatExt spid="_x0000_s11265"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB4A9BD8-BAE5-46A6-A456-31716D49F898}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000012C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10869,7 +10797,7 @@
                   <a14:compatExt spid="_x0000_s11324"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6182B776-C85F-4707-8B4D-797B42A13162}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003C2C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10889,7 +10817,6 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
@@ -10900,15 +10827,6 @@
                   <a:headEnd/>
                   <a:tailEnd/>
                 </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -11268,11 +11186,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11301,13 +11219,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="17">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="17">
-        <v>20</v>
+        <v>550</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>15</v>
@@ -11322,7 +11240,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="17">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="K2" s="2"/>
     </row>
@@ -11341,23 +11259,23 @@
       </c>
       <c r="E3" s="10">
         <f>D2*EXP(GAMMALN((1+1/B2)))</f>
-        <v>17.745276350061509</v>
+        <v>501.28283680099588</v>
       </c>
       <c r="F3" s="11">
         <f>D2*(0.69315)^(1/B2)</f>
-        <v>17.272726115329782</v>
+        <v>423.31908823127623</v>
       </c>
       <c r="G3" s="11">
         <f>IF(B2&gt;1,D2*(1-1/B2)^(1/B2),0)</f>
-        <v>16.303862192118455</v>
+        <v>224.77223181700342</v>
       </c>
       <c r="H3" s="12">
         <f>SQRT(D2^2*EXP(GAMMALN((1+2/B2)))-E3^2)</f>
-        <v>7.5933309984515223</v>
+        <v>362.80453154704992</v>
       </c>
       <c r="I3" s="18">
         <f>D2*(-LN(I2))^(1/B2)</f>
-        <v>8.1301985294572994</v>
+        <v>20.575424989128884</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -11366,15 +11284,15 @@
       </c>
       <c r="B4">
         <f>($B$2/$D$2)*(A4/$D$2)^($B$2-1)*C4</f>
-        <v>1.3967614542626976E-3</v>
+        <v>2.0396562894868333E-4</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C35" si="0">EXP(-((A4/$D$2)^$B$2))</f>
-        <v>0.99944113922651368</v>
+        <v>0.9998542996502251</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D35" si="1">B4/C4</f>
-        <v>1.3975424859373686E-3</v>
+        <v>2.0399535114269728E-4</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -11383,15 +11301,15 @@
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B53" si="2">($B$2/$D$2)*(A5/$D$2)^($B$2-1)*C5</f>
-        <v>3.9403668186289769E-3</v>
+        <v>2.6906999326034651E-4</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0.99684271707353289</v>
+        <v>0.99961554038127021</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>3.9528470752104748E-3</v>
+        <v>2.6917347959368328E-4</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -11400,15 +11318,15 @@
       </c>
       <c r="B6">
         <f t="shared" si="2"/>
-        <v>7.1988374481081596E-3</v>
+        <v>3.1635460678358949E-4</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.99132364617163382</v>
+        <v>0.99932186728719752</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>7.2618437741389071E-3</v>
+        <v>3.1656928277010431E-4</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -11419,15 +11337,15 @@
       </c>
       <c r="B7">
         <f t="shared" si="2"/>
-        <v>1.0982118122746911E-2</v>
+        <v>3.5481628887961818E-4</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0.98227050637577851</v>
+        <v>0.99898572462336488</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>1.1180339887498952E-2</v>
+        <v>3.5517653569413132E-4</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -11438,15 +11356,15 @@
       </c>
       <c r="B8">
         <f t="shared" si="2"/>
-        <v>1.514426928869288E-2</v>
+        <v>3.8779833671784958E-4</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0.96923323447634413</v>
+        <v>0.99861404506073204</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>1.5625000000000003E-2</v>
+        <v>3.8833655368252418E-4</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -11455,15 +11373,15 @@
       </c>
       <c r="B9">
         <f t="shared" si="2"/>
-        <v>1.9551646457064756E-2</v>
+        <v>4.1696854309602105E-4</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0.95190024896891834</v>
+        <v>0.99821139144335924</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>2.0539595906443723E-2</v>
+        <v>4.1771567292285381E-4</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -11472,15 +11390,15 @@
       </c>
       <c r="B10">
         <f t="shared" si="2"/>
-        <v>2.4073425920276281E-2</v>
+        <v>4.4329694523483109E-4</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0.93009180993889173</v>
+        <v>0.99778105158485042</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>2.5882849051060818E-2</v>
+        <v>4.4428278581830084E-4</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -11489,15 +11407,15 @@
       </c>
       <c r="B11">
         <f t="shared" si="2"/>
-        <v>2.8579359296853665E-2</v>
+        <v>4.6740483878394821E-4</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>0.90375869446365809</v>
+        <v>0.99732553563455739</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>3.1622776601683798E-2</v>
+        <v>4.6865824856931758E-4</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -11506,15 +11424,15 @@
       </c>
       <c r="B12">
         <f t="shared" si="2"/>
-        <v>3.2940768782225759E-2</v>
+        <v>4.897175974931811E-4</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>0.87298131233374532</v>
+        <v>0.9968468389992744</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>3.7733647120308952E-2</v>
+        <v>4.912666403043463E-4</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -11523,15 +11441,15 @@
       </c>
       <c r="B13">
         <f t="shared" si="2"/>
-        <v>3.7033254200156872E-2</v>
+        <v>5.1054110236673682E-4</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>0.83796688557875576</v>
+        <v>0.99634659601781372</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>4.4194173824159216E-2</v>
+        <v>5.1241315462637342E-4</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -11540,15 +11458,15 @@
       </c>
       <c r="B14">
         <f t="shared" si="2"/>
-        <v>4.074031863430904E-2</v>
+        <v>5.3010375735341542E-4</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>0.79904341003519441</v>
+        <v>0.99582617650416583</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>5.0986364598782696E-2</v>
+        <v>5.3232559041010291E-4</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -11557,15 +11475,15 @@
       </c>
       <c r="B15">
         <f t="shared" si="2"/>
-        <v>4.3957378795705035E-2</v>
+        <v>5.4858128971009351E-4</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>0.75664976008309626</v>
+        <v>0.99528674980408727</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>5.809475019311125E-2</v>
+        <v>5.5117913487552855E-4</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -11574,15 +11492,15 @@
       </c>
       <c r="B16">
         <f t="shared" si="2"/>
-        <v>4.6595733134311312E-2</v>
+        <v>5.6611222629811438E-4</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>0.71132177136047881</v>
+        <v>0.99472932915969736</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>6.5505844204925709E-2</v>
+        <v>5.6911182741172471E-4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -11591,15 +11509,15 @@
       </c>
       <c r="B17">
         <f t="shared" si="2"/>
-        <v>4.8586120728033019E-2</v>
+        <v>5.8280799379110796E-4</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0.66367453155108425</v>
+        <v>0.99415480351870511</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>7.3207752321731601E-2</v>
+        <v>5.8623465050746738E-4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -11608,15 +11526,15 @@
       </c>
       <c r="B18">
         <f t="shared" si="2"/>
-        <v>4.9881557187326432E-2</v>
+        <v>5.9875975802264479E-4</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>0.61438145002028</v>
+        <v>0.99356396100289279</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>8.1189881604791125E-2</v>
+        <v>6.0263836202176973E-4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -11625,15 +11543,15 @@
       </c>
       <c r="B19">
         <f t="shared" si="2"/>
-        <v>5.0459195920156935E-2</v>
+        <v>6.1404320075324919E-4</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>0.5641509608372548</v>
+        <v>0.99295750664368299</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>8.9442719099991588E-2</v>
+        <v>6.1839826643618403E-4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -11642,15 +11560,15 @@
       </c>
       <c r="B20">
         <f t="shared" si="2"/>
-        <v>5.0321038797884063E-2</v>
+        <v>6.2872194489405953E-4</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>0.51370192867460474</v>
+        <v>0.99233607606233032</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>9.7957659858736917E-2</v>
+        <v>6.3357763570269358E-4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -11659,15 +11577,15 @@
       </c>
       <c r="B21">
         <f t="shared" si="2"/>
-        <v>4.9493408168540545E-2</v>
+        <v>6.4285006697025848E-4</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>0.46373895993176578</v>
+        <v>0.99170024620997987</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>0.1067268710306828</v>
+        <v>6.4823021818040687E-4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -11676,15 +11594,15 @@
       </c>
       <c r="B22">
         <f t="shared" si="2"/>
-        <v>4.8025187175273543E-2</v>
+        <v>6.5647397685328986E-4</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>0.41492886228773246</v>
+        <v>0.99105054393025782</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>0.11574318284460644</v>
+        <v>6.6240211548633911E-4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -11693,15 +11611,15 @@
       </c>
       <c r="B23">
         <f t="shared" si="2"/>
-        <v>4.5984930146430292E-2</v>
+        <v>6.6963384876163518E-4</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>0.36787944117144233</v>
+        <v>0.99038745287891683</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>0.125</v>
+        <v>6.7613321111359393E-4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -11710,15 +11628,15 @@
       </c>
       <c r="B24">
         <f t="shared" si="2"/>
-        <v>4.3457031208912457E-2</v>
+        <v>6.8236472755953104E-4</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>0.32312167563355693</v>
+        <v>0.98971141918331318</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>0.13449122880321973</v>
+        <v>6.8945827473891586E-4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -11727,15 +11645,15 @@
       </c>
       <c r="B25">
         <f t="shared" si="2"/>
-        <v>4.0537209310256596E-2</v>
+        <v>6.9469739586716455E-4</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>0.28109609127089291</v>
+        <v>0.98902285612109231</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>0.14421121662339587</v>
+        <v>7.0240782765298234E-4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -11744,15 +11662,15 @@
       </c>
       <c r="B26">
         <f t="shared" si="2"/>
-        <v>3.7327614976860317E-2</v>
+        <v>7.0665906213761916E-4</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>0.24214386397262885</v>
+        <v>0.98832214802548313</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>0.15415470111222684</v>
+        <v>7.150088294079174E-4</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -11761,15 +11679,15 @@
       </c>
       <c r="B27">
         <f t="shared" si="2"/>
-        <v>3.3931884120139894E-2</v>
+        <v>7.1827391278650617E-4</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>0.20650287056946617</v>
+        <v>0.98760965357352537</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>0.16431676725154984</v>
+        <v>7.2728522872121996E-4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -11778,15 +11696,15 @@
       </c>
       <c r="B28">
         <f t="shared" si="2"/>
-        <v>3.0450455617501794E-2</v>
+        <v>7.2956355973967163E-4</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>0.17430857908883032</v>
+        <v>0.98688570857668867</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>0.17469281074217108</v>
+        <v>7.392584099650875E-4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -11795,15 +11713,15 @@
       </c>
       <c r="B29">
         <f t="shared" si="2"/>
-        <v>2.697643387917564E-2</v>
+        <v>7.4054740657071084E-4</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>0.1455993702525343</v>
+        <v>0.98615062836630596</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>0.18527850657860992</v>
+        <v>7.5094755838418857E-4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -11812,15 +11730,15 @@
       </c>
       <c r="B30">
         <f t="shared" si="2"/>
-        <v>2.3592219640794897E-2</v>
+        <v>7.5124295057781649E-4</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>0.12032562800838341</v>
+        <v>0.98540470984615203</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>0.19606978190175051</v>
+        <v>7.6236996136856867E-4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -11829,15 +11747,15 @@
       </c>
       <c r="B31">
         <f t="shared" si="2"/>
-        <v>2.0367058520003718E-2</v>
+        <v>7.6166603395041001E-4</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>9.8361749511347588E-2</v>
+        <v>0.98464823326935225</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>0.20706279240848655</v>
+        <v>7.7354125891378601E-4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -11846,15 +11764,15 @@
       </c>
       <c r="B32">
         <f t="shared" si="2"/>
-        <v>1.7355575543796898E-2</v>
+        <v>7.7183105410607092E-4</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>7.9520115816410886E-2</v>
+        <v>0.98388146378527597</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>0.21825390174061038</v>
+        <v>7.8447565333390268E-4</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -11863,15 +11781,15 @@
       </c>
       <c r="B33">
         <f t="shared" si="2"/>
-        <v>1.4597283340519306E-2</v>
+        <v>7.8175114100555133E-4</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>6.3566037004625431E-2</v>
+        <v>0.98310465279317605</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>0.22963966338592295</v>
+        <v>7.9518608602294433E-4</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -11880,15 +11798,15 @@
       </c>
       <c r="B34">
         <f t="shared" si="2"/>
-        <v>1.2116979765025002E-2</v>
+        <v>7.9143830755161167E-4</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>5.023273473645698E-2</v>
+        <v>0.98231803913242055</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>0.24121680471103168</v>
+        <v>8.0568438736054043E-4</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -11897,15 +11815,15 @@
       </c>
       <c r="B35">
         <f t="shared" si="2"/>
-        <v>9.9258935937831857E-3</v>
+        <v>8.009035778890419E-4</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>3.9235539461036244E-2</v>
+        <v>0.98152185013373205</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>0.25298221281347039</v>
+        <v>8.1598140457078878E-4</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -11914,15 +11832,15 @@
       </c>
       <c r="B36">
         <f t="shared" si="2"/>
-        <v>8.0233986154713086E-3</v>
+        <v>8.1015709743826833E-4</v>
       </c>
       <c r="C36">
         <f t="shared" ref="C36:C53" si="3">EXP(-((A36/$D$2)^$B$2))</f>
-        <v>3.0284641700516073E-2</v>
+        <v>0.9807163025515454</v>
       </c>
       <c r="D36">
         <f t="shared" ref="D36:D53" si="4">B36/C36</f>
-        <v>0.26493292193496826</v>
+        <v>8.2608711135979853E-4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -11931,15 +11849,15 @@
       </c>
       <c r="B37">
         <f t="shared" si="2"/>
-        <v>6.3990985167618839E-3</v>
+        <v>8.1920822773495642E-4</v>
       </c>
       <c r="C37">
         <f t="shared" si="3"/>
-        <v>2.3095927164901192E-2</v>
+        <v>0.97990160339415644</v>
       </c>
       <c r="D37">
         <f t="shared" si="4"/>
-        <v>0.27706610222111255</v>
+        <v>8.3601070239849114E-4</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -11948,15 +11866,15 @@
       </c>
       <c r="B38">
         <f t="shared" si="2"/>
-        <v>5.0350865925097342E-3</v>
+        <v>8.2806562855655501E-4</v>
       </c>
       <c r="C38">
         <f t="shared" si="3"/>
-        <v>1.7399623775943018E-2</v>
+        <v>0.97907795066557546</v>
       </c>
       <c r="D38">
         <f t="shared" si="4"/>
-        <v>0.28937904964768957</v>
+        <v>8.4576067512667145E-4</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -11965,15 +11883,15 @@
       </c>
       <c r="B39">
         <f t="shared" si="2"/>
-        <v>3.9082026437113121E-3</v>
+        <v>8.3673732935268059E-4</v>
       </c>
       <c r="C39">
         <f t="shared" si="3"/>
-        <v>1.2946676712863533E-2</v>
+        <v>0.97824553403075154</v>
       </c>
       <c r="D39">
         <f t="shared" si="4"/>
-        <v>0.30186917696247162</v>
+        <v>8.5534490089108587E-4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -11982,15 +11900,15 @@
       </c>
       <c r="B40">
         <f t="shared" si="2"/>
-        <v>2.9921401910827029E-3</v>
+        <v>8.4523079162940285E-4</v>
       </c>
       <c r="C40">
         <f t="shared" si="3"/>
-        <v>9.512930680382975E-3</v>
+        <v>0.97740453541401573</v>
       </c>
       <c r="D40">
         <f t="shared" si="4"/>
-        <v>0.31453400551450716</v>
+        <v>8.6477068706395375E-4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -11999,15 +11917,15 @@
       </c>
       <c r="B41">
         <f t="shared" si="2"/>
-        <v>2.2592953374039096E-3</v>
+        <v>8.5355296364544734E-4</v>
       </c>
       <c r="C41">
         <f t="shared" si="3"/>
-        <v>6.9013267758771465E-3</v>
+        <v>0.97655512953908574</v>
       </c>
       <c r="D41">
         <f t="shared" si="4"/>
-        <v>0.32737115786214271</v>
+        <v>8.7404483149692441E-4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -12016,15 +11934,15 @@
       </c>
       <c r="B42">
         <f t="shared" si="2"/>
-        <v>1.6822892581781282E-3</v>
+        <v>8.6171032854425811E-4</v>
       </c>
       <c r="C42">
         <f t="shared" si="3"/>
-        <v>4.9424096829461389E-3</v>
+        <v>0.97569748441774129</v>
       </c>
       <c r="D42">
         <f t="shared" si="4"/>
-        <v>0.34037835106686792</v>
+        <v>8.8317367043176675E-4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -12033,15 +11951,15 @@
       </c>
       <c r="B43">
         <f t="shared" si="2"/>
-        <v>1.2351349787595074E-3</v>
+        <v>8.6970894685708163E-4</v>
       </c>
       <c r="C43">
         <f t="shared" si="3"/>
-        <v>3.4934892766462001E-3</v>
+        <v>0.97483176179325415</v>
       </c>
       <c r="D43">
         <f t="shared" si="4"/>
-        <v>0.35355339059327379</v>
+        <v>8.9216312080066663E-4</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -12050,15 +11968,15 @@
       </c>
       <c r="B44">
         <f t="shared" si="2"/>
-        <v>8.9405241585762416E-4</v>
+        <v>8.775544941590557E-4</v>
       </c>
       <c r="C44">
         <f t="shared" si="3"/>
-        <v>2.436812851671986E-3</v>
+        <v>0.9739581175437968</v>
       </c>
       <c r="D44">
         <f t="shared" si="4"/>
-        <v>0.36689416474645653</v>
+        <v>9.010187176961374E-4</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -12067,15 +11985,15 @@
       </c>
       <c r="B45">
         <f t="shared" si="2"/>
-        <v>6.3796146913068931E-4</v>
+        <v>8.8525229453531866E-4</v>
       </c>
       <c r="C45">
         <f t="shared" si="3"/>
-        <v>1.6770866210839589E-3</v>
+        <v>0.97307670205034136</v>
       </c>
       <c r="D45">
         <f t="shared" si="4"/>
-        <v>0.38039863958747272</v>
+        <v>9.0974564766583101E-4</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -12084,15 +12002,15 @@
       </c>
       <c r="B46">
         <f t="shared" si="2"/>
-        <v>4.4870034683490954E-4</v>
+        <v>8.9280735041163636E-4</v>
       </c>
       <c r="C46">
         <f t="shared" si="3"/>
-        <v>1.1386459410598941E-3</v>
+        <v>0.97218766053295202</v>
       </c>
       <c r="D46">
         <f t="shared" si="4"/>
-        <v>0.39406485427528293</v>
+        <v>9.1834877838523532E-4</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -12101,15 +12019,15 @@
       </c>
       <c r="B47">
         <f t="shared" si="2"/>
-        <v>3.1102550588931881E-4</v>
+        <v>9.0022436921952489E-4</v>
       </c>
       <c r="C47">
         <f t="shared" si="3"/>
-        <v>7.6252128470232362E-4</v>
+        <v>0.9712911333588653</v>
       </c>
       <c r="D47">
         <f t="shared" si="4"/>
-        <v>0.40789091679026152</v>
+        <v>9.2683268517691373E-4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -12118,15 +12036,15 @@
       </c>
       <c r="B48">
         <f t="shared" si="2"/>
-        <v>2.1245163035777645E-4</v>
+        <v>9.0750778729583865E-4</v>
       </c>
       <c r="C48">
         <f t="shared" si="3"/>
-        <v>5.0358904973695157E-4</v>
+        <v>0.97038725632531941</v>
       </c>
       <c r="D48">
         <f t="shared" si="4"/>
-        <v>0.421875</v>
+        <v>9.3520167477508529E-4</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -12135,15 +12053,15 @@
       </c>
       <c r="B49">
         <f t="shared" si="2"/>
-        <v>1.4298653727251633E-4</v>
+        <v>9.1466179135851907E-4</v>
       </c>
       <c r="C49">
         <f t="shared" si="3"/>
-        <v>3.2793923699469971E-4</v>
+        <v>0.969476160919722</v>
       </c>
       <c r="D49">
         <f t="shared" si="4"/>
-        <v>0.43601533803296411</v>
+        <v>9.4345980667621401E-4</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -12152,15 +12070,15 @@
       </c>
       <c r="B50">
         <f t="shared" si="2"/>
-        <v>9.4808571082823139E-5</v>
+        <v>9.2169033785150195E-4</v>
       </c>
       <c r="C50">
         <f t="shared" si="3"/>
-        <v>2.1054057015628365E-4</v>
+        <v>0.96855797455942994</v>
       </c>
       <c r="D50">
         <f t="shared" si="4"/>
-        <v>0.4503102229297043</v>
+        <v>9.5161091236769103E-4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -12169,15 +12087,15 @@
       </c>
       <c r="B51">
         <f t="shared" si="2"/>
-        <v>6.1924660483369357E-5</v>
+        <v>9.2859717041090791E-4</v>
       </c>
       <c r="C51">
         <f t="shared" si="3"/>
-        <v>1.3324065487313228E-4</v>
+        <v>0.96763282081314328</v>
       </c>
       <c r="D51">
         <f t="shared" si="4"/>
-        <v>0.46475800154488994</v>
+        <v>9.5965861268592354E-4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -12186,15 +12104,15 @@
       </c>
       <c r="B52">
         <f t="shared" si="2"/>
-        <v>3.9837250973227157E-5</v>
+        <v>9.3538583567018936E-4</v>
       </c>
       <c r="C52">
         <f t="shared" si="3"/>
-        <v>8.3105587137357963E-5</v>
+        <v>0.96670081960568022</v>
       </c>
       <c r="D52">
         <f t="shared" si="4"/>
-        <v>0.47935707267651745</v>
+        <v>9.6760633352078432E-4</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -12203,15 +12121,15 @@
       </c>
       <c r="B53">
         <f t="shared" si="2"/>
-        <v>2.5238924506041381E-5</v>
+        <v>9.4205969759278343E-4</v>
       </c>
       <c r="C53">
         <f t="shared" si="3"/>
-        <v>5.1079991764563774E-5</v>
+        <v>0.96576208740769842</v>
       </c>
       <c r="D53">
         <f t="shared" si="4"/>
-        <v>0.49410588440130937</v>
+        <v>9.7545732005432408E-4</v>
       </c>
     </row>
   </sheetData>
@@ -12284,7 +12202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13343,7 +13261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14786,7 +14704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17125,7 +17043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
